--- a/lab03_data_g1.xlsx
+++ b/lab03_data_g1.xlsx
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>distance</t>
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -347,23 +353,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -371,148 +383,292 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.75</v>
       </c>
       <c r="B3">
         <v>494</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f>B3-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>A3-$A$2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" ref="C4:C20" si="0">B4-$B$2</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D20" si="1">A4-$A$2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.25</v>
       </c>
       <c r="B5">
         <v>498</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.5</v>
       </c>
       <c r="B6">
         <v>501</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.75</v>
       </c>
       <c r="B7">
         <v>503</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
         <v>506</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2.25</v>
       </c>
       <c r="B9">
         <v>509</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2.5</v>
       </c>
       <c r="B10">
         <v>511</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.75</v>
       </c>
       <c r="B11">
         <v>514</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
         <v>516</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.25</v>
       </c>
       <c r="B13">
         <v>521</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.5</v>
       </c>
       <c r="B14">
         <v>522</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.75</v>
       </c>
       <c r="B15">
         <v>524</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
         <v>526</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4.25</v>
       </c>
       <c r="B17">
         <v>527</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4.5</v>
       </c>
       <c r="B18">
         <v>529</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4.75</v>
       </c>
       <c r="B19">
         <v>532</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20">
         <v>536</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
